--- a/RAG/extraction/new_era_v1/main/Book1.xlsx
+++ b/RAG/extraction/new_era_v1/main/Book1.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RD-Agent\RAG\extraction\new_era_v1\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\belajar-RAG\RD-Agent\RAG\extraction\new_era_v1\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DFA6AF-1B7A-46D3-BDD3-1E3DEF2D9E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CF23EDEE-98C0-445E-91C3-316E17A926D1}"/>
+    <workbookView xWindow="11430" yWindow="0" windowWidth="11715" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -36,7 +34,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +107,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -122,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -136,6 +164,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,19 +482,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67224FA3-D956-4E7B-8350-1AB3D7C68BB6}">
-  <dimension ref="A1:AI50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="29" width="8.88671875" style="11"/>
+    <col min="10" max="10" width="3.7109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" style="13" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="11"/>
+    <col min="20" max="20" width="1.7109375" style="11" customWidth="1"/>
+    <col min="21" max="21" width="8.85546875" style="11"/>
+    <col min="22" max="22" width="1.7109375" style="11" customWidth="1"/>
+    <col min="23" max="27" width="8.85546875" style="11"/>
+    <col min="28" max="28" width="3.7109375" style="13" customWidth="1"/>
+    <col min="29" max="29" width="8.85546875" style="11"/>
+    <col min="30" max="30" width="1.7109375" style="11" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" style="11"/>
+    <col min="32" max="32" width="1.7109375" style="11" customWidth="1"/>
+    <col min="33" max="40" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -474,20 +521,23 @@
       <c r="K1" s="2"/>
       <c r="M1" s="4"/>
       <c r="O1" s="8"/>
-      <c r="T1" s="2"/>
-      <c r="V1" s="4"/>
-      <c r="X1" s="8">
+      <c r="S1" s="2"/>
+      <c r="U1" s="4"/>
+      <c r="W1" s="8">
         <v>1</v>
       </c>
-      <c r="AD1">
+      <c r="AC1" s="14"/>
+      <c r="AE1" s="16"/>
+      <c r="AG1" s="15"/>
+      <c r="AO1">
         <v>1</v>
       </c>
-      <c r="AE1">
-        <f>AD1/$AD$50*100</f>
+      <c r="AP1">
+        <f>AO1/$AO$50*100</f>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -500,20 +550,23 @@
       <c r="K2" s="2"/>
       <c r="M2" s="4"/>
       <c r="O2" s="8"/>
-      <c r="T2" s="2"/>
-      <c r="V2" s="4"/>
-      <c r="X2" s="8">
+      <c r="S2" s="2"/>
+      <c r="U2" s="4"/>
+      <c r="W2" s="8">
         <v>2</v>
       </c>
-      <c r="AD2">
+      <c r="AC2" s="14"/>
+      <c r="AE2" s="16"/>
+      <c r="AG2" s="15"/>
+      <c r="AO2">
         <v>2</v>
       </c>
-      <c r="AE2">
-        <f t="shared" ref="AE2:AE50" si="0">AD2/$AD$50*100</f>
+      <c r="AP2">
+        <f t="shared" ref="AP2:AP50" si="0">AO2/$AO$50*100</f>
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -526,20 +579,23 @@
       <c r="K3" s="2"/>
       <c r="M3" s="4"/>
       <c r="O3" s="8"/>
-      <c r="T3" s="2"/>
-      <c r="V3" s="4"/>
-      <c r="X3" s="8">
+      <c r="S3" s="2"/>
+      <c r="U3" s="4"/>
+      <c r="W3" s="8">
         <v>3</v>
       </c>
-      <c r="AD3">
+      <c r="AC3" s="14"/>
+      <c r="AE3" s="16"/>
+      <c r="AG3" s="15"/>
+      <c r="AO3">
         <v>3</v>
       </c>
-      <c r="AE3">
+      <c r="AP3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -552,20 +608,23 @@
       <c r="K4" s="2"/>
       <c r="M4" s="4"/>
       <c r="O4" s="8"/>
-      <c r="T4" s="2"/>
-      <c r="V4" s="4"/>
-      <c r="X4" s="8">
+      <c r="S4" s="2"/>
+      <c r="U4" s="4"/>
+      <c r="W4" s="8">
         <v>4</v>
       </c>
-      <c r="AD4">
+      <c r="AC4" s="14"/>
+      <c r="AE4" s="16"/>
+      <c r="AG4" s="15"/>
+      <c r="AO4">
         <v>4</v>
       </c>
-      <c r="AE4">
+      <c r="AP4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -578,20 +637,23 @@
       <c r="K5" s="2"/>
       <c r="M5" s="4"/>
       <c r="O5" s="8"/>
-      <c r="T5" s="2"/>
-      <c r="V5" s="4"/>
-      <c r="X5" s="8">
+      <c r="S5" s="2"/>
+      <c r="U5" s="4"/>
+      <c r="W5" s="8">
         <v>5</v>
       </c>
-      <c r="AD5">
+      <c r="AC5" s="14"/>
+      <c r="AE5" s="16"/>
+      <c r="AG5" s="15"/>
+      <c r="AO5">
         <v>5</v>
       </c>
-      <c r="AE5">
+      <c r="AP5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -604,20 +666,23 @@
       <c r="K6" s="2"/>
       <c r="M6" s="4"/>
       <c r="O6" s="8"/>
-      <c r="T6" s="2"/>
-      <c r="V6" s="4"/>
-      <c r="X6" s="8">
+      <c r="S6" s="2"/>
+      <c r="U6" s="4"/>
+      <c r="W6" s="8">
         <v>6</v>
       </c>
-      <c r="AD6">
+      <c r="AC6" s="14"/>
+      <c r="AE6" s="16"/>
+      <c r="AG6" s="15"/>
+      <c r="AO6">
         <v>6</v>
       </c>
-      <c r="AE6">
+      <c r="AP6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -630,20 +695,23 @@
       <c r="K7" s="2"/>
       <c r="M7" s="4"/>
       <c r="O7" s="8"/>
-      <c r="T7" s="2"/>
-      <c r="V7" s="4"/>
-      <c r="X7" s="8">
+      <c r="S7" s="2"/>
+      <c r="U7" s="4"/>
+      <c r="W7" s="8">
         <v>7</v>
       </c>
-      <c r="AD7">
+      <c r="AC7" s="14"/>
+      <c r="AE7" s="16"/>
+      <c r="AG7" s="15"/>
+      <c r="AO7">
         <v>7</v>
       </c>
-      <c r="AE7">
+      <c r="AP7">
         <f t="shared" si="0"/>
         <v>14.000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -656,20 +724,24 @@
       <c r="K8" s="2"/>
       <c r="M8" s="4"/>
       <c r="O8" s="8"/>
-      <c r="T8" s="2"/>
-      <c r="V8" s="4"/>
-      <c r="X8" s="8">
+      <c r="S8" s="2"/>
+      <c r="U8" s="4"/>
+      <c r="W8" s="8">
         <v>8</v>
       </c>
-      <c r="AD8">
+      <c r="AC8" s="14"/>
+      <c r="AE8" s="4"/>
+      <c r="AG8" s="15"/>
+      <c r="AH8" s="8"/>
+      <c r="AO8">
         <v>8</v>
       </c>
-      <c r="AE8">
+      <c r="AP8">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -682,20 +754,24 @@
       <c r="K9" s="2"/>
       <c r="M9" s="4"/>
       <c r="O9" s="8"/>
-      <c r="T9" s="2"/>
-      <c r="V9" s="4"/>
-      <c r="X9" s="8">
+      <c r="S9" s="2"/>
+      <c r="U9" s="4"/>
+      <c r="W9" s="8">
         <v>9</v>
       </c>
-      <c r="AD9">
+      <c r="AC9" s="14"/>
+      <c r="AE9" s="4"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="8"/>
+      <c r="AO9">
         <v>9</v>
       </c>
-      <c r="AE9">
+      <c r="AP9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -708,25 +784,29 @@
       <c r="K10" s="2"/>
       <c r="M10" s="4"/>
       <c r="O10" s="8"/>
-      <c r="T10" s="2"/>
-      <c r="V10" s="5"/>
-      <c r="X10" s="8">
+      <c r="S10" s="2"/>
+      <c r="U10" s="5"/>
+      <c r="W10" s="8">
         <v>10</v>
       </c>
-      <c r="Y10" s="9"/>
-      <c r="AD10">
+      <c r="X10" s="9"/>
+      <c r="AC10" s="14"/>
+      <c r="AE10" s="4"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="8"/>
+      <c r="AO10">
         <v>10</v>
       </c>
-      <c r="AE10">
+      <c r="AP10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="AI10">
+      <c r="AT10">
         <f>50/3</f>
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -739,21 +819,25 @@
       <c r="K11" s="2"/>
       <c r="M11" s="4"/>
       <c r="O11" s="8"/>
-      <c r="T11" s="2"/>
-      <c r="V11" s="5"/>
-      <c r="X11" s="8">
+      <c r="S11" s="2"/>
+      <c r="U11" s="5"/>
+      <c r="W11" s="8">
         <v>11</v>
       </c>
-      <c r="Y11" s="9"/>
-      <c r="AD11">
+      <c r="X11" s="9"/>
+      <c r="AC11" s="14"/>
+      <c r="AE11" s="4"/>
+      <c r="AG11" s="15"/>
+      <c r="AH11" s="8"/>
+      <c r="AO11">
         <v>11</v>
       </c>
-      <c r="AE11">
+      <c r="AP11">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -766,21 +850,25 @@
       <c r="K12" s="2"/>
       <c r="M12" s="4"/>
       <c r="O12" s="8"/>
-      <c r="T12" s="2"/>
-      <c r="V12" s="5"/>
-      <c r="X12" s="8">
+      <c r="S12" s="2"/>
+      <c r="U12" s="5"/>
+      <c r="W12" s="8">
         <v>12</v>
       </c>
-      <c r="Y12" s="9"/>
-      <c r="AD12">
+      <c r="X12" s="9"/>
+      <c r="AC12" s="14"/>
+      <c r="AE12" s="4"/>
+      <c r="AG12" s="15"/>
+      <c r="AH12" s="8"/>
+      <c r="AO12">
         <v>12</v>
       </c>
-      <c r="AE12">
+      <c r="AP12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -793,21 +881,25 @@
       <c r="K13" s="2"/>
       <c r="M13" s="4"/>
       <c r="O13" s="8"/>
-      <c r="T13" s="2"/>
-      <c r="V13" s="5"/>
-      <c r="X13" s="8">
+      <c r="S13" s="2"/>
+      <c r="U13" s="5"/>
+      <c r="W13" s="8">
         <v>13</v>
       </c>
-      <c r="Y13" s="9"/>
-      <c r="AD13">
+      <c r="X13" s="9"/>
+      <c r="AC13" s="14"/>
+      <c r="AE13" s="4"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="8"/>
+      <c r="AO13">
         <v>13</v>
       </c>
-      <c r="AE13">
+      <c r="AP13">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -821,21 +913,25 @@
       <c r="M14" s="5"/>
       <c r="O14" s="8"/>
       <c r="P14" s="9"/>
-      <c r="T14" s="2"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="8">
+      <c r="S14" s="2"/>
+      <c r="U14" s="5"/>
+      <c r="W14" s="8">
         <v>14</v>
       </c>
-      <c r="Y14" s="9"/>
-      <c r="AD14">
+      <c r="X14" s="9"/>
+      <c r="AC14" s="2"/>
+      <c r="AE14" s="5"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="9"/>
+      <c r="AO14">
         <v>14</v>
       </c>
-      <c r="AE14">
+      <c r="AP14">
         <f t="shared" si="0"/>
         <v>28.000000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -849,21 +945,25 @@
       <c r="M15" s="5"/>
       <c r="O15" s="8"/>
       <c r="P15" s="9"/>
-      <c r="T15" s="2"/>
-      <c r="V15" s="5"/>
-      <c r="X15" s="8">
+      <c r="S15" s="2"/>
+      <c r="U15" s="5"/>
+      <c r="W15" s="8">
         <v>15</v>
       </c>
-      <c r="Y15" s="9"/>
-      <c r="AD15">
+      <c r="X15" s="9"/>
+      <c r="AC15" s="2"/>
+      <c r="AE15" s="5"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="9"/>
+      <c r="AO15">
         <v>15</v>
       </c>
-      <c r="AE15">
+      <c r="AP15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -877,21 +977,25 @@
       <c r="M16" s="5"/>
       <c r="O16" s="8"/>
       <c r="P16" s="9"/>
-      <c r="T16" s="2"/>
-      <c r="V16" s="5"/>
-      <c r="X16" s="8">
+      <c r="S16" s="2"/>
+      <c r="U16" s="5"/>
+      <c r="W16" s="8">
         <v>16</v>
       </c>
-      <c r="Y16" s="9"/>
-      <c r="AD16">
+      <c r="X16" s="9"/>
+      <c r="AC16" s="2"/>
+      <c r="AE16" s="5"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="9"/>
+      <c r="AO16">
         <v>16</v>
       </c>
-      <c r="AE16">
+      <c r="AP16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -905,21 +1009,25 @@
       <c r="M17" s="5"/>
       <c r="O17" s="8"/>
       <c r="P17" s="9"/>
-      <c r="T17" s="2"/>
-      <c r="V17" s="5"/>
-      <c r="X17" s="8">
+      <c r="S17" s="2"/>
+      <c r="U17" s="5"/>
+      <c r="W17" s="8">
         <v>17</v>
       </c>
-      <c r="Y17" s="9"/>
-      <c r="AD17">
+      <c r="X17" s="9"/>
+      <c r="AC17" s="2"/>
+      <c r="AE17" s="5"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="9"/>
+      <c r="AO17">
         <v>17</v>
       </c>
-      <c r="AE17">
+      <c r="AP17">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -933,21 +1041,25 @@
       <c r="M18" s="5"/>
       <c r="O18" s="8"/>
       <c r="P18" s="9"/>
-      <c r="T18" s="3"/>
-      <c r="V18" s="5"/>
-      <c r="X18" s="8">
+      <c r="S18" s="3"/>
+      <c r="U18" s="5"/>
+      <c r="W18" s="8">
         <v>18</v>
       </c>
-      <c r="Y18" s="9"/>
-      <c r="AD18">
+      <c r="X18" s="9"/>
+      <c r="AC18" s="2"/>
+      <c r="AE18" s="5"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="9"/>
+      <c r="AO18">
         <v>18</v>
       </c>
-      <c r="AE18">
+      <c r="AP18">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -961,23 +1073,27 @@
       <c r="M19" s="5"/>
       <c r="O19" s="8"/>
       <c r="P19" s="9"/>
-      <c r="T19" s="3"/>
-      <c r="V19" s="6"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="10"/>
-      <c r="AD19">
+      <c r="S19" s="3"/>
+      <c r="U19" s="6"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="10"/>
+      <c r="AC19" s="2"/>
+      <c r="AE19" s="5"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="9"/>
+      <c r="AO19">
         <v>19</v>
       </c>
-      <c r="AE19">
+      <c r="AP19">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="AI19">
+      <c r="AT19">
         <f>34+17</f>
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -991,19 +1107,23 @@
       <c r="M20" s="5"/>
       <c r="O20" s="8"/>
       <c r="P20" s="9"/>
-      <c r="T20" s="3"/>
-      <c r="V20" s="6"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="10"/>
-      <c r="AD20">
+      <c r="S20" s="3"/>
+      <c r="U20" s="6"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="10"/>
+      <c r="AC20" s="2"/>
+      <c r="AE20" s="6"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="10"/>
+      <c r="AO20">
         <v>20</v>
       </c>
-      <c r="AE20">
+      <c r="AP20">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1017,19 +1137,23 @@
       <c r="M21" s="5"/>
       <c r="O21" s="8"/>
       <c r="P21" s="9"/>
-      <c r="T21" s="3"/>
-      <c r="V21" s="6"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
-      <c r="AD21">
+      <c r="S21" s="3"/>
+      <c r="U21" s="6"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="10"/>
+      <c r="AC21" s="2"/>
+      <c r="AE21" s="6"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="10"/>
+      <c r="AO21">
         <v>21</v>
       </c>
-      <c r="AE21">
+      <c r="AP21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1043,19 +1167,23 @@
       <c r="M22" s="5"/>
       <c r="O22" s="8"/>
       <c r="P22" s="9"/>
-      <c r="T22" s="3"/>
-      <c r="V22" s="6"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="10"/>
-      <c r="AD22">
+      <c r="S22" s="3"/>
+      <c r="U22" s="6"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="10"/>
+      <c r="AC22" s="2"/>
+      <c r="AE22" s="6"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="10"/>
+      <c r="AO22">
         <v>22</v>
       </c>
-      <c r="AE22">
+      <c r="AP22">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1069,19 +1197,23 @@
       <c r="M23" s="5"/>
       <c r="O23" s="8"/>
       <c r="P23" s="9"/>
-      <c r="T23" s="3"/>
-      <c r="V23" s="6"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="10"/>
-      <c r="AD23">
+      <c r="S23" s="3"/>
+      <c r="U23" s="6"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="10"/>
+      <c r="AC23" s="2"/>
+      <c r="AE23" s="6"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="10"/>
+      <c r="AO23">
         <v>23</v>
       </c>
-      <c r="AE23">
+      <c r="AP23">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1095,19 +1227,23 @@
       <c r="M24" s="5"/>
       <c r="O24" s="8"/>
       <c r="P24" s="9"/>
-      <c r="T24" s="3"/>
-      <c r="V24" s="6"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="10"/>
-      <c r="AD24">
+      <c r="S24" s="3"/>
+      <c r="U24" s="6"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="10"/>
+      <c r="AC24" s="2"/>
+      <c r="AE24" s="6"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="10"/>
+      <c r="AO24">
         <v>24</v>
       </c>
-      <c r="AE24">
+      <c r="AP24">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1121,19 +1257,23 @@
       <c r="M25" s="5"/>
       <c r="O25" s="8"/>
       <c r="P25" s="9"/>
-      <c r="T25" s="3"/>
-      <c r="V25" s="6"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="10"/>
-      <c r="AD25">
+      <c r="S25" s="3"/>
+      <c r="U25" s="6"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="10"/>
+      <c r="AC25" s="2"/>
+      <c r="AE25" s="6"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="10"/>
+      <c r="AO25">
         <v>25</v>
       </c>
-      <c r="AE25">
+      <c r="AP25">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1147,19 +1287,23 @@
       <c r="M26" s="6"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="10"/>
-      <c r="T26" s="3"/>
-      <c r="V26" s="6"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="10"/>
-      <c r="AD26">
+      <c r="S26" s="3"/>
+      <c r="U26" s="6"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="10"/>
+      <c r="AC26" s="3"/>
+      <c r="AE26" s="7"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="17"/>
+      <c r="AO26">
         <v>26</v>
       </c>
-      <c r="AE26">
+      <c r="AP26">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1173,19 +1317,23 @@
       <c r="M27" s="6"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="10"/>
-      <c r="T27" s="3"/>
-      <c r="V27" s="6"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="10"/>
-      <c r="AD27">
+      <c r="S27" s="3"/>
+      <c r="U27" s="6"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="10"/>
+      <c r="AC27" s="3"/>
+      <c r="AE27" s="7"/>
+      <c r="AJ27" s="10"/>
+      <c r="AK27" s="17"/>
+      <c r="AO27">
         <v>27</v>
       </c>
-      <c r="AE27">
+      <c r="AP27">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1199,19 +1347,23 @@
       <c r="M28" s="6"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="10"/>
-      <c r="T28" s="3"/>
-      <c r="V28" s="7"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="9"/>
-      <c r="AD28">
+      <c r="S28" s="3"/>
+      <c r="U28" s="7"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="9"/>
+      <c r="AC28" s="3"/>
+      <c r="AE28" s="7"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="17"/>
+      <c r="AO28">
         <v>28</v>
       </c>
-      <c r="AE28">
+      <c r="AP28">
         <f t="shared" si="0"/>
         <v>56.000000000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1225,19 +1377,23 @@
       <c r="M29" s="6"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="10"/>
-      <c r="T29" s="3"/>
-      <c r="V29" s="7"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="9"/>
-      <c r="AD29">
+      <c r="S29" s="3"/>
+      <c r="U29" s="7"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="9"/>
+      <c r="AC29" s="3"/>
+      <c r="AE29" s="7"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="17"/>
+      <c r="AO29">
         <v>29</v>
       </c>
-      <c r="AE29">
+      <c r="AP29">
         <f t="shared" si="0"/>
         <v>57.999999999999993</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1251,19 +1407,23 @@
       <c r="M30" s="6"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="10"/>
-      <c r="T30" s="3"/>
-      <c r="V30" s="7"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="9"/>
-      <c r="AD30">
+      <c r="S30" s="3"/>
+      <c r="U30" s="7"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="9"/>
+      <c r="AC30" s="3"/>
+      <c r="AE30" s="7"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="17"/>
+      <c r="AO30">
         <v>30</v>
       </c>
-      <c r="AE30">
+      <c r="AP30">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1277,19 +1437,23 @@
       <c r="M31" s="6"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="10"/>
-      <c r="T31" s="3"/>
-      <c r="V31" s="7"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="9"/>
-      <c r="AD31">
+      <c r="S31" s="3"/>
+      <c r="U31" s="7"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="9"/>
+      <c r="AC31" s="3"/>
+      <c r="AE31" s="7"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="17"/>
+      <c r="AO31">
         <v>31</v>
       </c>
-      <c r="AE31">
+      <c r="AP31">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1303,19 +1467,23 @@
       <c r="M32" s="6"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="10"/>
-      <c r="T32" s="3"/>
-      <c r="V32" s="7"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="9"/>
-      <c r="AD32">
+      <c r="S32" s="3"/>
+      <c r="U32" s="7"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="9"/>
+      <c r="AC32" s="3"/>
+      <c r="AE32" s="7"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="17"/>
+      <c r="AO32">
         <v>32</v>
       </c>
-      <c r="AE32">
+      <c r="AP32">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1329,19 +1497,23 @@
       <c r="M33" s="6"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="10"/>
-      <c r="T33" s="3"/>
-      <c r="V33" s="7"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="9"/>
-      <c r="AD33">
+      <c r="S33" s="3"/>
+      <c r="U33" s="7"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="9"/>
+      <c r="AC33" s="3"/>
+      <c r="AE33" s="6"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="10"/>
+      <c r="AO33">
         <v>33</v>
       </c>
-      <c r="AE33">
+      <c r="AP33">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1355,19 +1527,23 @@
       <c r="M34" s="6"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="10"/>
-      <c r="T34" s="3"/>
-      <c r="V34" s="7"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="9"/>
-      <c r="AD34">
+      <c r="S34" s="3"/>
+      <c r="U34" s="7"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="9"/>
+      <c r="AC34" s="3"/>
+      <c r="AE34" s="6"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="10"/>
+      <c r="AO34">
         <v>34</v>
       </c>
-      <c r="AE34">
+      <c r="AP34">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1381,19 +1557,23 @@
       <c r="M35" s="6"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="10"/>
-      <c r="T35" s="12"/>
-      <c r="V35" s="7"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="9"/>
-      <c r="AD35">
+      <c r="S35" s="12"/>
+      <c r="U35" s="7"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="9"/>
+      <c r="AC35" s="3"/>
+      <c r="AE35" s="6"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="10"/>
+      <c r="AO35">
         <v>35</v>
       </c>
-      <c r="AE35">
+      <c r="AP35">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1407,19 +1587,23 @@
       <c r="M36" s="6"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="10"/>
-      <c r="T36" s="12"/>
-      <c r="V36" s="7"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="9"/>
-      <c r="AD36">
+      <c r="S36" s="12"/>
+      <c r="U36" s="7"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="9"/>
+      <c r="AC36" s="3"/>
+      <c r="AE36" s="6"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="10"/>
+      <c r="AO36">
         <v>36</v>
       </c>
-      <c r="AE36">
+      <c r="AP36">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1433,19 +1617,23 @@
       <c r="M37" s="6"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="10"/>
-      <c r="T37" s="12"/>
-      <c r="V37" s="6"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="8"/>
-      <c r="AD37">
+      <c r="S37" s="12"/>
+      <c r="U37" s="6"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="8"/>
+      <c r="AC37" s="3"/>
+      <c r="AE37" s="6"/>
+      <c r="AK37" s="17"/>
+      <c r="AL37" s="10"/>
+      <c r="AO37">
         <v>37</v>
       </c>
-      <c r="AE37">
+      <c r="AP37">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1459,19 +1647,23 @@
       <c r="M38" s="6"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="10"/>
-      <c r="T38" s="12"/>
-      <c r="V38" s="6"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="8"/>
-      <c r="AD38">
+      <c r="S38" s="12"/>
+      <c r="U38" s="6"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="8"/>
+      <c r="AC38" s="3"/>
+      <c r="AE38" s="6"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="10"/>
+      <c r="AO38">
         <v>38</v>
       </c>
-      <c r="AE38">
+      <c r="AP38">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1485,19 +1677,23 @@
       <c r="M39" s="6"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="10"/>
-      <c r="T39" s="12"/>
-      <c r="V39" s="6"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="8"/>
-      <c r="AD39">
+      <c r="S39" s="12"/>
+      <c r="U39" s="6"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="8"/>
+      <c r="AC39" s="12"/>
+      <c r="AE39" s="5"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="9"/>
+      <c r="AO39">
         <v>39</v>
       </c>
-      <c r="AE39">
+      <c r="AP39">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1510,19 +1706,23 @@
       <c r="K40" s="3"/>
       <c r="M40" s="7"/>
       <c r="Q40" s="10"/>
-      <c r="T40" s="12"/>
-      <c r="V40" s="6"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="8"/>
-      <c r="AD40">
+      <c r="S40" s="12"/>
+      <c r="U40" s="6"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="8"/>
+      <c r="AC40" s="12"/>
+      <c r="AE40" s="5"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="9"/>
+      <c r="AO40">
         <v>40</v>
       </c>
-      <c r="AE40">
+      <c r="AP40">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1535,19 +1735,23 @@
       <c r="K41" s="3"/>
       <c r="M41" s="7"/>
       <c r="Q41" s="10"/>
-      <c r="T41" s="12"/>
-      <c r="V41" s="6"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="8"/>
-      <c r="AD41">
+      <c r="S41" s="12"/>
+      <c r="U41" s="6"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="8"/>
+      <c r="AC41" s="12"/>
+      <c r="AE41" s="5"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="9"/>
+      <c r="AO41">
         <v>41</v>
       </c>
-      <c r="AE41">
+      <c r="AP41">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1560,19 +1764,23 @@
       <c r="K42" s="3"/>
       <c r="M42" s="7"/>
       <c r="Q42" s="10"/>
-      <c r="T42" s="12"/>
-      <c r="V42" s="6"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="8"/>
-      <c r="AD42">
+      <c r="S42" s="12"/>
+      <c r="U42" s="6"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="8"/>
+      <c r="AC42" s="12"/>
+      <c r="AE42" s="5"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="9"/>
+      <c r="AO42">
         <v>42</v>
       </c>
-      <c r="AE42">
+      <c r="AP42">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1585,19 +1793,23 @@
       <c r="K43" s="3"/>
       <c r="M43" s="7"/>
       <c r="Q43" s="10"/>
-      <c r="T43" s="12"/>
-      <c r="V43" s="6"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="8"/>
-      <c r="AD43">
+      <c r="S43" s="12"/>
+      <c r="U43" s="6"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="8"/>
+      <c r="AC43" s="12"/>
+      <c r="AE43" s="5"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="9"/>
+      <c r="AO43">
         <v>43</v>
       </c>
-      <c r="AE43">
+      <c r="AP43">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1610,19 +1822,23 @@
       <c r="K44" s="3"/>
       <c r="M44" s="7"/>
       <c r="Q44" s="10"/>
-      <c r="T44" s="12"/>
-      <c r="V44" s="6"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="8"/>
-      <c r="AD44">
+      <c r="S44" s="12"/>
+      <c r="U44" s="6"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="8"/>
+      <c r="AC44" s="12"/>
+      <c r="AE44" s="5"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="9"/>
+      <c r="AO44">
         <v>44</v>
       </c>
-      <c r="AE44">
+      <c r="AP44">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1635,19 +1851,22 @@
       <c r="K45" s="3"/>
       <c r="M45" s="7"/>
       <c r="Q45" s="10"/>
-      <c r="T45" s="12"/>
-      <c r="V45" s="6"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="8"/>
-      <c r="AD45">
+      <c r="S45" s="12"/>
+      <c r="U45" s="6"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="8"/>
+      <c r="AC45" s="12"/>
+      <c r="AE45" s="4"/>
+      <c r="AM45" s="9"/>
+      <c r="AO45">
         <v>45</v>
       </c>
-      <c r="AE45">
+      <c r="AP45">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1660,18 +1879,21 @@
       <c r="K46" s="3"/>
       <c r="M46" s="7"/>
       <c r="Q46" s="10"/>
-      <c r="T46" s="12"/>
-      <c r="V46" s="5"/>
-      <c r="AB46" s="8"/>
-      <c r="AD46">
+      <c r="S46" s="12"/>
+      <c r="U46" s="5"/>
+      <c r="AA46" s="8"/>
+      <c r="AC46" s="12"/>
+      <c r="AE46" s="4"/>
+      <c r="AM46" s="9"/>
+      <c r="AO46">
         <v>46</v>
       </c>
-      <c r="AE46">
+      <c r="AP46">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1684,18 +1906,21 @@
       <c r="K47" s="3"/>
       <c r="M47" s="7"/>
       <c r="Q47" s="10"/>
-      <c r="T47" s="12"/>
-      <c r="V47" s="5"/>
-      <c r="AB47" s="8"/>
-      <c r="AD47">
+      <c r="S47" s="12"/>
+      <c r="U47" s="5"/>
+      <c r="AA47" s="8"/>
+      <c r="AC47" s="12"/>
+      <c r="AE47" s="4"/>
+      <c r="AM47" s="9"/>
+      <c r="AO47">
         <v>47</v>
       </c>
-      <c r="AE47">
+      <c r="AP47">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1708,18 +1933,21 @@
       <c r="K48" s="3"/>
       <c r="M48" s="7"/>
       <c r="Q48" s="10"/>
-      <c r="T48" s="12"/>
-      <c r="V48" s="5"/>
-      <c r="AB48" s="8"/>
-      <c r="AD48">
+      <c r="S48" s="12"/>
+      <c r="U48" s="5"/>
+      <c r="AA48" s="8"/>
+      <c r="AC48" s="12"/>
+      <c r="AE48" s="4"/>
+      <c r="AM48" s="9"/>
+      <c r="AO48">
         <v>48</v>
       </c>
-      <c r="AE48">
+      <c r="AP48">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1732,18 +1960,21 @@
       <c r="K49" s="3"/>
       <c r="M49" s="7"/>
       <c r="Q49" s="10"/>
-      <c r="T49" s="12"/>
-      <c r="V49" s="5"/>
-      <c r="AB49" s="8"/>
-      <c r="AD49">
+      <c r="S49" s="12"/>
+      <c r="U49" s="5"/>
+      <c r="AA49" s="8"/>
+      <c r="AC49" s="12"/>
+      <c r="AE49" s="4"/>
+      <c r="AM49" s="9"/>
+      <c r="AO49">
         <v>49</v>
       </c>
-      <c r="AE49">
+      <c r="AP49">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1756,13 +1987,16 @@
       <c r="K50" s="3"/>
       <c r="M50" s="7"/>
       <c r="Q50" s="10"/>
-      <c r="T50" s="12"/>
-      <c r="V50" s="5"/>
-      <c r="AB50" s="8"/>
-      <c r="AD50">
+      <c r="S50" s="12"/>
+      <c r="U50" s="5"/>
+      <c r="AA50" s="8"/>
+      <c r="AC50" s="12"/>
+      <c r="AE50" s="4"/>
+      <c r="AM50" s="9"/>
+      <c r="AO50">
         <v>50</v>
       </c>
-      <c r="AE50">
+      <c r="AP50">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
